--- a/Molecule Evaluations/2016 May Syngene/Syngene 270416.xlsx
+++ b/Molecule Evaluations/2016 May Syngene/Syngene 270416.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25520" windowHeight="13880" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,9 +228,6 @@
     <t>FC(F)OC(C=C1)=CC=C1C2=NN=C3C=NC=C(N4N=NC(C5=CC=CC=C5)=C4)N32</t>
   </si>
   <si>
-    <t>MMV693164</t>
-  </si>
-  <si>
     <t>OSM-S-362, EGT 51-4</t>
   </si>
   <si>
@@ -230,36 +235,42 @@
   </si>
   <si>
     <t>3-(4-(difluoromethoxy)phenyl)-5-(4-phenyl-1H-1,2,3-triazol-1-yl)-[1,2,4]triazolo[4,3-a]pyrazine</t>
+  </si>
+  <si>
+    <t>MMV693165</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,75 +291,378 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="68.43"/>
-    <col customWidth="1" min="2" max="2" width="13.71"/>
-    <col customWidth="1" min="3" max="3" width="15.29"/>
-    <col customWidth="1" min="4" max="4" width="14.29"/>
-    <col customWidth="1" min="5" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="22.29"/>
-    <col customWidth="1" min="7" max="7" width="10.86"/>
-    <col customWidth="1" min="8" max="8" width="6.86"/>
-    <col customWidth="1" min="9" max="9" width="7.14"/>
-    <col customWidth="1" min="10" max="10" width="18.14"/>
-    <col customWidth="1" min="11" max="11" width="85.86"/>
+    <col min="1" max="1" width="68.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +704,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -432,7 +746,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -474,7 +788,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -494,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="4">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -516,7 +830,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -558,7 +872,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -600,7 +914,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -620,7 +934,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="4">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -642,7 +956,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -684,7 +998,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -726,7 +1040,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -746,7 +1060,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
@@ -768,7 +1082,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -810,7 +1124,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
@@ -852,7 +1166,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>68</v>
       </c>
@@ -866,13 +1180,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="7">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>16</v>
@@ -881,10 +1195,10 @@
         <v>405.37</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -894,7 +1208,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -914,7 +1228,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -934,7 +1248,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -954,7 +1268,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -974,7 +1288,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -994,7 +1308,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1014,7 +1328,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1034,7 +1348,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1054,7 +1368,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1074,7 +1388,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1094,7 +1408,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1114,7 +1428,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1134,7 +1448,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1154,7 +1468,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1174,7 +1488,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1195,6 +1509,11 @@
       <c r="R28" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>